--- a/Munkafüzet1.xlsx
+++ b/Munkafüzet1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diak\Desktop\jegyzet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diak\Desktop\Új mappa\jegyzet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8D893C1-F631-43D2-AED9-801992BE336E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9C0A11-89A0-47D7-BC21-0211BC37B845}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{8AE9D21F-3DF3-407D-8287-3673DFE191D5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>Termék</t>
   </si>
@@ -93,18 +93,9 @@
     <t>Felhasználó</t>
   </si>
   <si>
-    <t xml:space="preserve">username </t>
-  </si>
-  <si>
     <t>hash</t>
   </si>
   <si>
-    <t>jog</t>
-  </si>
-  <si>
-    <t>nev</t>
-  </si>
-  <si>
     <t>admin</t>
   </si>
   <si>
@@ -127,6 +118,18 @@
   </si>
   <si>
     <t>Előzmény</t>
+  </si>
+  <si>
+    <t>Jelszó</t>
+  </si>
+  <si>
+    <t>Név</t>
+  </si>
+  <si>
+    <t>Szerepkör</t>
+  </si>
+  <si>
+    <t>név</t>
   </si>
 </sst>
 </file>
@@ -170,7 +173,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -230,13 +233,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -246,14 +266,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -570,35 +585,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81DCC11-F8C5-481D-92DE-45D441CFDA09}">
   <dimension ref="B5:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-      <c r="I5" s="2" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="I5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="4"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="12"/>
     </row>
     <row r="6" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -611,27 +627,27 @@
         <v>10</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="4"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="12"/>
     </row>
     <row r="7" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
@@ -645,7 +661,7 @@
         <v>20</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
@@ -661,17 +677,15 @@
         <v>3</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="U7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="V7" s="13"/>
     </row>
     <row r="8" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
@@ -685,7 +699,7 @@
         <v>19</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -694,17 +708,19 @@
       <c r="R8" s="1">
         <v>1</v>
       </c>
-      <c r="S8" s="1"/>
+      <c r="S8" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="T8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="U8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="V8" s="1"/>
+      <c r="V8" s="13"/>
     </row>
     <row r="9" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C9" s="7">
+      <c r="C9" s="4">
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -722,8 +738,8 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="13"/>
     </row>
     <row r="10" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
@@ -742,52 +758,52 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="13"/>
     </row>
     <row r="11" spans="3:22" x14ac:dyDescent="0.25">
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="13"/>
     </row>
     <row r="12" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="10"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="13"/>
     </row>
     <row r="13" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="4"/>
+      <c r="H13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="7"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="13"/>
     </row>
     <row r="14" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D14" s="1">
@@ -796,34 +812,32 @@
       <c r="E14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="5" t="s">
         <v>3</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M14" s="5" t="s">
+      <c r="M14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="N14" s="11" t="s">
         <v>9</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="P14" s="6"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="13"/>
     </row>
     <row r="15" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D15" s="1">
@@ -834,26 +848,24 @@
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
       <c r="L15" s="1">
         <v>1</v>
       </c>
       <c r="M15" s="1">
         <v>1</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15" s="11">
         <v>3</v>
       </c>
       <c r="O15" s="1"/>
-      <c r="P15" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="P15" s="6"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="13"/>
     </row>
     <row r="16" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D16" s="1">
@@ -864,15 +876,13 @@
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
+      <c r="N16" s="11"/>
       <c r="O16" s="1"/>
-      <c r="P16" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="P16" s="6"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D17" s="1">
@@ -883,13 +893,13 @@
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="N17" s="11"/>
       <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
+      <c r="P17" s="6"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D18" s="1">
@@ -900,16 +910,16 @@
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="N18" s="11"/>
       <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
+      <c r="P18" s="6"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -933,7 +943,7 @@
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="7">
+      <c r="B24" s="4">
         <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -948,12 +958,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="C5:F5"/>
     <mergeCell ref="D12:E12"/>
-    <mergeCell ref="R6:V6"/>
     <mergeCell ref="H13:I13"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="R6:U6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Munkafüzet1.xlsx
+++ b/Munkafüzet1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diak\Desktop\Új mappa\jegyzet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9C0A11-89A0-47D7-BC21-0211BC37B845}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EEBF35-282B-4DDA-85CF-2D8281220B37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{8AE9D21F-3DF3-407D-8287-3673DFE191D5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
   <si>
     <t>Termék</t>
   </si>
@@ -105,9 +105,6 @@
     <t>TÍPUS</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -130,6 +127,27 @@
   </si>
   <si>
     <t>név</t>
+  </si>
+  <si>
+    <t>nev</t>
+  </si>
+  <si>
+    <t>hely</t>
+  </si>
+  <si>
+    <t>LAPTOP-1-0001</t>
+  </si>
+  <si>
+    <t>Thinkpad</t>
+  </si>
+  <si>
+    <t>tipus</t>
+  </si>
+  <si>
+    <t>lenyilo</t>
+  </si>
+  <si>
+    <t>input</t>
   </si>
 </sst>
 </file>
@@ -153,7 +171,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,6 +190,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -246,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -257,18 +287,20 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -583,44 +615,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81DCC11-F8C5-481D-92DE-45D441CFDA09}">
-  <dimension ref="B5:V25"/>
+  <dimension ref="B5:V27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="I5" s="8" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="12"/>
+      <c r="I5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="12"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -641,13 +673,13 @@
       <c r="L6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="R6" s="8" t="s">
+      <c r="R6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="12"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="9"/>
     </row>
     <row r="7" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
@@ -656,12 +688,14 @@
       <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
@@ -677,15 +711,15 @@
         <v>3</v>
       </c>
       <c r="S7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="T7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U7" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="V7" s="13"/>
+      <c r="V7" s="10"/>
     </row>
     <row r="8" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
@@ -699,7 +733,7 @@
         <v>19</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -709,15 +743,15 @@
         <v>1</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="U8" s="11" t="s">
+      <c r="U8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="V8" s="13"/>
+      <c r="V8" s="10"/>
     </row>
     <row r="9" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C9" s="4">
@@ -738,8 +772,8 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="13"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="10"/>
     </row>
     <row r="10" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
@@ -758,26 +792,26 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="13"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="10"/>
     </row>
     <row r="11" spans="3:22" x14ac:dyDescent="0.25">
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="13"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="10"/>
     </row>
     <row r="12" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="12"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="13"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="10"/>
     </row>
     <row r="13" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D13" s="3" t="s">
@@ -786,24 +820,24 @@
       <c r="E13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="10"/>
+      <c r="H13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="12"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="10"/>
+      <c r="L13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="12"/>
       <c r="P13" s="7"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="13"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="10"/>
     </row>
     <row r="14" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D14" s="1">
@@ -816,7 +850,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
@@ -826,7 +860,7 @@
       <c r="M14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="11" t="s">
+      <c r="N14" s="8" t="s">
         <v>9</v>
       </c>
       <c r="O14" s="1" t="s">
@@ -836,8 +870,8 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="13"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="10"/>
     </row>
     <row r="15" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D15" s="1">
@@ -856,7 +890,7 @@
       <c r="M15" s="1">
         <v>1</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="8">
         <v>3</v>
       </c>
       <c r="O15" s="1"/>
@@ -864,8 +898,8 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="13"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="10"/>
     </row>
     <row r="16" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D16" s="1">
@@ -880,7 +914,7 @@
       <c r="K16" s="6"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="11"/>
+      <c r="N16" s="8"/>
       <c r="O16" s="1"/>
       <c r="P16" s="6"/>
     </row>
@@ -897,7 +931,7 @@
       <c r="K17" s="6"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="11"/>
+      <c r="N17" s="8"/>
       <c r="O17" s="1"/>
       <c r="P17" s="6"/>
     </row>
@@ -914,12 +948,12 @@
       <c r="K18" s="6"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="11"/>
+      <c r="N18" s="8"/>
       <c r="O18" s="1"/>
       <c r="P18" s="6"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -956,14 +990,45 @@
       </c>
       <c r="C25" s="1"/>
     </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="R6:U6"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="L13:O13"/>
     <mergeCell ref="I5:L5"/>
-    <mergeCell ref="R6:U6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
